--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/41_İzmir_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/41_İzmir_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC4AA6F-A51F-4CED-BF44-4FB587D5394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{847FAC4B-0F1E-4200-961F-7E0A9353AFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{C3411CF2-4138-402A-934A-0729A8014B0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{7132249A-7577-431B-9806-66F5141430FE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B1229040-91C4-4238-8959-490D14FEAED6}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5C901AF9-2BC9-40DE-9B5B-C5DA4495E802}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{29DB071B-1214-4467-BC16-20357C18A25B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{DF7C36A6-ED76-4328-BF8E-5143628857C2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{801BE51B-6DE4-4A56-A8CC-4F0B3FEC5F3C}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{417EC61D-0EDC-43FB-9AB0-CF4F3C4ADD82}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{83E1F630-59FD-403C-A89C-BFD731E8F553}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2C0B1040-0F84-49DA-AB90-7AC34EDB028B}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3F48576A-8824-4579-84DF-1237CF201575}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B148C3F6-6076-4D18-A18C-DE670B440E10}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{AD30233D-FB94-4444-B566-66F2C6E48ACB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{E1D07C72-B8BC-4E8F-8189-4BEE67E23950}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{3E1F432B-BA94-42AB-88ED-D7DF7FD14D52}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{BB30DFAE-BDF5-43FB-9E7D-092FFB39A6DA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EE631F-C391-47DB-853C-2B0AF7F0884A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2741F8-3A1D-4A3E-BD1A-743F96162871}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2624,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DA55FA-E84A-4F1D-BE33-E43E80EDB539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E3EE1E-5A31-466F-9AC7-400EAB21CB9A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3960,7 +3960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F84E19A-F86C-41DC-9ACD-C09988BD34DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266AB36D-CDD2-44A2-84A0-9B11C890E44B}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5296,7 +5296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44635B03-5EBA-4673-B29F-C42FBB4EF383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F355F95-8A72-4D31-B98C-48AE7B87F14A}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6632,7 +6632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731DEC97-C60F-4B79-B47B-DB3CC1005DB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45D7790-4D40-4F64-A2A1-3E43AC7AA07D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7977,7 +7977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DB4156-EB37-4B1F-BCA3-3B749DB8EC8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6229647-5CD3-4544-A9A1-EA24876318E1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9324,7 +9324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C944A1C0-6210-4B6F-B113-A14620FD4167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34CA901-3EC5-4B05-9C6F-1ABC9AFF9FA0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10669,7 +10669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6AD6B8-893C-41EB-86A7-063A300D0FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2310F494-5F7A-4D22-B0CA-57D1573C5AEF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12014,7 +12014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4270B1DA-A097-4771-8783-8E7B07D83E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C5D62B-A205-44C3-AD33-EA49B9477D7A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13395,7 +13395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AAB05-9624-4E09-ADB6-EBCDA30AB668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C5EA41-AE0E-448C-8EF7-E2902D014C98}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14730,7 +14730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029F18B-692C-4C02-9E69-14B61BEC8AD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CC64D9-C75C-4BF6-A657-51B44DEACF5A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16065,7 +16065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E6B344-5C93-4439-A3CD-8EB11AFBC5BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB969824-9D32-4038-BE78-1BD8E26ED9C3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
